--- a/通勤交通費申請書.xlsx
+++ b/通勤交通費申請書.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="320" windowWidth="38320" windowHeight="19180"/>
@@ -10,9 +10,9 @@
     <sheet name="通勤交通費申請書 " sheetId="7" r:id="rId1"/>
     <sheet name="通勤交通費申請書（記入例）" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="130407" calcMode="manual"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -250,28 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>記入日：　平成26年　　　4月　　14日</t>
-    <rPh sb="0" eb="2">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘイセイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>陳良</t>
     <rPh sb="0" eb="1">
       <t>チン</t>
@@ -305,19 +283,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検見川浜〜八丁堀</t>
-    <rPh sb="0" eb="4">
-      <t>ケミガワハマ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ハッチョウボリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>16,480円</t>
     <rPh sb="6" eb="7">
       <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横浜〜八丁堀</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコハマ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッチョウボリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入日：　平成28年　　　5月　　14日</t>
+    <rPh sb="0" eb="2">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,11 +325,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,27 +381,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -409,20 +409,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -431,7 +431,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -439,17 +439,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -459,7 +459,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -467,12 +467,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +481,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,7 +569,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -867,21 +867,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -952,7 +952,7 @@
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24" customHeight="1">
@@ -1048,7 +1048,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.1811023622047245" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1056,14 +1056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="4" width="20.83203125" customWidth="1"/>
   </cols>
@@ -1241,7 +1241,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.1811023622047245" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/通勤交通費申請書.xlsx
+++ b/通勤交通費申請書.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -317,6 +317,25 @@
       <t>ガツ</t>
     </rPh>
     <rPh sb="19" eb="20">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更日：平成28年4月1日</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -871,7 +890,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
@@ -1018,7 +1037,7 @@
     </row>
     <row r="24" spans="2:4" ht="24" customHeight="1">
       <c r="B24" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>

--- a/通勤交通費申請書.xlsx
+++ b/通勤交通費申請書.xlsx
@@ -260,22 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>千葉県千葉市美浜区真砂４−４−５−４０１</t>
-    <rPh sb="0" eb="3">
-      <t>チバケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チバシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ミハマク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>マサゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JR京葉線</t>
     <rPh sb="2" eb="5">
       <t>ケイヨウセン</t>
@@ -337,6 +321,22 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉県千葉市美浜区真砂４−４−５</t>
+    <rPh sb="0" eb="3">
+      <t>チバケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チバシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミハマク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マサゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -890,7 +890,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
@@ -900,7 +900,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -971,10 +971,10 @@
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="20">
         <f>550*2</f>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24" customHeight="1">
@@ -1037,7 +1037,7 @@
     </row>
     <row r="24" spans="2:4" ht="24" customHeight="1">
       <c r="B24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
